--- a/학습자료/순서배열/조선_문제_구분통합.xlsx
+++ b/학습자료/순서배열/조선_문제_구분통합.xlsx
@@ -456,21 +456,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄱ. 관수관급제 실시 
-ㄴ. 칠정산 저술 
-ㄷ. 정초 변효문 농사직설 편찬</t>
+          <t>ㄱ. 청계천 준설 
+ㄴ. 최제우 동학 창시 
+ㄷ. 규장각 설치</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ㄷㄴㄱ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1429 : 세종 - 정초 변효문 농사직설 편찬
-ㄴ. 1444 : 세종 - 칠정산 저술
-ㄱ. 1469 : 성종 - 관수관급제 실시
+          <t xml:space="preserve">ㄱ. 1760 : 영조 - 청계천 준설
+ㄷ. 1776 : 정조 - 규장각 설치
+ㄴ. 1860 : 철종 - 최제우 동학 창시
 </t>
         </is>
       </c>
@@ -481,21 +481,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ㄱ. 사병 혁파 
-ㄴ. 보법 수립 
-ㄷ. 1차 왕자의 난</t>
+          <t>ㄱ. 속대전 편찬 
+ㄴ. 반회 사건 
+ㄷ. 홍봉한 동국문헌비고 편찬</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1398 : 태조 - 1차 왕자의 난
-ㄱ. 1400 : 태종 - 사병 혁파
-ㄴ. 1464 : 세조 - 보법 수립
+          <t xml:space="preserve">ㄱ. 1746 : 영조 - 속대전 편찬
+ㄷ. 1770 : 영조 - 홍봉한 동국문헌비고 편찬
+ㄴ. 1787 : 정조 - 반회 사건
 </t>
         </is>
       </c>
@@ -506,9 +506,9 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ㄱ. 보법 수립 
-ㄴ. 갑인자 주조 
-ㄷ. 계유정난</t>
+          <t>ㄱ. 최제우 동학 창시 
+ㄴ. 백두산정계비 건립 
+ㄷ. 정유독대</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -518,9 +518,9 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1434 : 세종 - 갑인자 주조
-ㄷ. 1453 : 단종 - 계유정난
-ㄱ. 1464 : 세조 - 보법 수립
+          <t xml:space="preserve">ㄴ. 1712 : 숙종 - 백두산정계비 건립
+ㄷ. 1717 : 숙종 - 정유독대
+ㄱ. 1860 : 철종 - 최제우 동학 창시
 </t>
         </is>
       </c>
@@ -531,21 +531,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ㄱ. 국가 주도의 사창제 실시 
-ㄴ. 유향소 부활 
-ㄷ. 국가 주도의 사창제 폐지</t>
+          <t>ㄱ. 만동묘 건립 
+ㄴ. 대동법 전국 실시 
+ㄷ. 동문휘고 편찬</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1451 : 문종 - 국가 주도의 사창제 실시
-ㄷ. 1470 : 성종 - 국가 주도의 사창제 폐지
-ㄴ. 1489 : 성종 - 유향소 부활
+          <t xml:space="preserve">ㄱ. 1703 : 숙종 - 만동묘 건립
+ㄴ. 1708 : 숙종 - 대동법 전국 실시
+ㄷ. 1788 : 정조 - 동문휘고 편찬
 </t>
         </is>
       </c>
@@ -556,21 +556,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ㄱ. 의흥삼군부 설치 
-ㄴ. 조선통보 발행 
-ㄷ. 여진 무역소 설치</t>
+          <t>ㄱ. 박세당 색경 저술 
+ㄴ. 금위영 설치 
+ㄷ. 초계문신제 실시</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1393 : 태조 - 의흥삼군부 설치
-ㄷ. 1406 : 태종 - 여진 무역소 설치
-ㄴ. 1423 : 세종 - 조선통보 발행
+          <t xml:space="preserve">ㄱ. 1676 : 숙종 - 박세당 색경 저술
+ㄴ. 1682 : 숙종 - 금위영 설치
+ㄷ. 1781 : 정조 - 초계문신제 실시
 </t>
         </is>
       </c>
@@ -581,21 +581,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ㄱ. 정약용 목민심서 저술 
-ㄴ. 박세당 색경 저술 
-ㄷ. 임오화변</t>
+          <t>ㄱ. 사간원 설치 
+ㄴ. 신숙주 해동제국기 편찬 
+ㄷ. 중종반정</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1676 : 숙종 - 박세당 색경 저술
-ㄷ. 1762 : 영조 - 임오화변
-ㄱ. 1818 : 순조 - 정약용 목민심서 저술
+          <t xml:space="preserve">ㄱ. 1401 : 태종 - 사간원 설치
+ㄴ. 1471 : 성종 - 신숙주 해동제국기 편찬
+ㄷ. 1506 : 연산군 - 중종반정
 </t>
         </is>
       </c>
@@ -606,21 +606,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ㄱ. 백두산정계비 건립 
-ㄴ. 수성윤음 반포 
-ㄷ. 기로과 설치</t>
+          <t>ㄱ. 월인천강지곡 간행 
+ㄴ. 김종서의 6진 설치 
+ㄷ. 국가 주도의 사창제 실시</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄱㄷ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1712 : 숙종 - 백두산정계비 건립
-ㄴ. 1751 : 영조 - 수성윤음 반포
-ㄷ. 1756 : 영조 - 기로과 설치
+          <t xml:space="preserve">ㄴ. 1437 : 세종 - 김종서의 6진 설치
+ㄱ. 1449 : 세종 - 월인천강지곡 간행
+ㄷ. 1451 : 문종 - 국가 주도의 사창제 실시
 </t>
         </is>
       </c>
@@ -631,21 +631,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ㄱ. 탕평 교서 발표 
-ㄴ. 최제우 동학 창시 
-ㄷ. 장길산 이영창의 봉기</t>
+          <t>ㄱ. 저화 재발행 
+ㄴ. 서얼금고법 실시 
+ㄷ. 도첩제 폐지</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ㄷㄱㄴ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄷ. 1696 : 숙종 - 장길산 이영창의 봉기
-ㄱ. 1725 : 영조 - 탕평 교서 발표
-ㄴ. 1860 : 철종 - 최제우 동학 창시
+          <t xml:space="preserve">ㄱ. 1402 : 태종 - 저화 재발행
+ㄴ. 1415 : 태종 - 서얼금고법 실시
+ㄷ. 1492 : 성종 - 도첩제 폐지
 </t>
         </is>
       </c>
@@ -656,21 +656,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ㄱ. 노비종모법 실시 
-ㄴ. 금위영 설치 
-ㄷ. 신문고 부활</t>
+          <t>ㄱ. 원각사지 10층석탑 제작 
+ㄴ. 사병 혁파 
+ㄷ. 정도전 조선경국전 저술</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄴㄱ</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1682 : 숙종 - 금위영 설치
-ㄱ. 1731 : 영조 - 노비종모법 실시
-ㄷ. 1771 : 영조 - 신문고 부활
+          <t xml:space="preserve">ㄷ. 1394 : 태조 - 정도전 조선경국전 저술
+ㄴ. 1400 : 태종 - 사병 혁파
+ㄱ. 1467 : 세조 - 원각사지 10층석탑 제작
 </t>
         </is>
       </c>
@@ -681,21 +681,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ㄱ. 수성윤음 반포 
-ㄴ. 정유독대 
-ㄷ. 박지원 과농소초 저술</t>
+          <t>ㄱ. 호패법 실시 
+ㄴ. 수양대군의 석보상절 간행 
+ㄷ. 개경 천도</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1717 : 숙종 - 정유독대
-ㄱ. 1751 : 영조 - 수성윤음 반포
-ㄷ. 1799 : 정조 - 박지원 과농소초 저술
+          <t xml:space="preserve">ㄷ. 1399 : 정종 - 개경 천도
+ㄱ. 1413 : 태종 - 호패법 실시
+ㄴ. 1447 : 세종 - 수양대군의 석보상절 간행
 </t>
         </is>
       </c>
@@ -706,21 +706,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ㄱ. 백운동서원 소수서원으로 사액 
-ㄴ. 유형원 동국여지지 제작 
-ㄷ. 창덕궁 중건</t>
+          <t>ㄱ. 어영청 설치 
+ㄴ. 이이의 해주향약 시행 
+ㄷ. 한백겸 동국지리지 집필</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ㄱㄷㄴ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1550 : 명종 - 백운동서원 소수서원으로 사액
-ㄷ. 1610 : 광해군 - 창덕궁 중건
-ㄴ. 1656 : 효종 - 유형원 동국여지지 제작
+          <t xml:space="preserve">ㄴ. 1577 : 선조 - 이이의 해주향약 시행
+ㄷ. 1615 : 광해군 - 한백겸 동국지리지 집필
+ㄱ. 1623 : 인조 - 어영청 설치
 </t>
         </is>
       </c>
@@ -731,9 +731,9 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ㄱ. 신속 농가집성 편찬 
-ㄴ. 기묘사화 
-ㄷ. 정미약조</t>
+          <t>ㄱ. 창덕궁 중건 
+ㄴ. 신증동국여지승람 편찬 
+ㄷ. 니탕개의 난</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -743,9 +743,9 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1519 : 중종 - 기묘사화
-ㄷ. 1547 : 명종 - 정미약조
-ㄱ. 1655 : 효종 - 신속 농가집성 편찬
+          <t xml:space="preserve">ㄴ. 1530 : 중종 - 신증동국여지승람 편찬
+ㄷ. 1583 : 선조 - 니탕개의 난
+ㄱ. 1610 : 광해군 - 창덕궁 중건
 </t>
         </is>
       </c>
@@ -756,21 +756,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ㄱ. 정미약조 
-ㄴ. 이황의 예안향약 시행 
-ㄷ. 회퇴변척</t>
+          <t>ㄱ. 조선통보 재발행 
+ㄴ. 정철의 건저 사건 
+ㄷ. 이괄의 난</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄴㄷㄱ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄱ. 1547 : 명종 - 정미약조
-ㄴ. 1556 : 명종 - 이황의 예안향약 시행
-ㄷ. 1611 : 광해군 - 회퇴변척
+          <t xml:space="preserve">ㄴ. 1591 : 선조 - 정철의 건저 사건
+ㄷ. 1624 : 인조 - 이괄의 난
+ㄱ. 1633 : 인조 - 조선통보 재발행
 </t>
         </is>
       </c>
@@ -781,21 +781,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ㄱ. 이이의 서원향약 시행 
-ㄴ. 삼포왜란 
-ㄷ. 임꺽정의 난</t>
+          <t>ㄱ. 금산전투 패전 
+ㄴ. 삼전도의 굴욕 
+ㄷ. 설점수세제 실시</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ㄴㄷㄱ</t>
+          <t>ㄱㄴㄷ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1510 : 중종 - 삼포왜란
-ㄷ. 1559 : 명종 - 임꺽정의 난
-ㄱ. 1571 : 선조 - 이이의 서원향약 시행
+          <t xml:space="preserve">ㄱ. 1592 : 선조 - 금산전투 패전
+ㄴ. 1637 : 인조 - 삼전도의 굴욕
+ㄷ. 1651 : 효종 - 설점수세제 실시
 </t>
         </is>
       </c>
@@ -806,21 +806,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ㄱ. 경기도에 대동법 실시 
-ㄴ. 정유재란 발발 
-ㄷ. 창덕궁 중건</t>
+          <t>ㄱ. 정여립 모반 사건 
+ㄴ. 조선통보 재발행 
+ㄷ. 일본과 국교 재개</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ㄴ. 1597 : 선조 - 정유재란 발발
-ㄱ. 1608 : 광해군 - 경기도에 대동법 실시
-ㄷ. 1610 : 광해군 - 창덕궁 중건
+          <t xml:space="preserve">ㄱ. 1589 : 선조 - 정여립 모반 사건
+ㄷ. 1605 : 선조 - 일본과 국교 재개
+ㄴ. 1633 : 인조 - 조선통보 재발행
 </t>
         </is>
       </c>
